--- a/relatorios/repasses_liberados/dentistas/08890902469/2023-08-25_relatorio_repasses_08890902469.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08890902469/2023-08-25_relatorio_repasses_08890902469.xlsx
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/08890902469/2023-08-25_relatorio_repasses_08890902469.xlsx
+++ b/relatorios/repasses_liberados/dentistas/08890902469/2023-08-25_relatorio_repasses_08890902469.xlsx
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3428,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3648,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3868,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4220,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N76">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4836,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N90">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N97">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N99">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N100">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N101">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5408,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N103">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6860,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N139">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7168,10 +7168,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N143">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7212,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N144">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7872,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N161">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N168">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8576,10 +8576,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8620,10 +8620,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N252">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N298">
         <v>0</v>
